--- a/Assets/06.Table/GuildExchange.xlsx
+++ b/Assets/06.Table/GuildExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63D37C-FAB7-498D-8264-B652E5BA3E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9B69E-9A3B-4B0F-B1C8-FD00AFAD5229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildExchange" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchage_Guild5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,9 +481,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,7 +521,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -619,7 +627,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9041</v>
+        <v>9063</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -828,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>4000</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -848,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9044</v>
+        <v>9041</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -857,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -877,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9038</v>
+        <v>9044</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -886,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -906,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9033</v>
+        <v>9038</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -915,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -935,19 +943,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9043</v>
+        <v>9033</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>2000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -958,16 +972,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -981,21 +995,44 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9010</v>
+        <v>9032</v>
       </c>
       <c r="C8">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>500</v>
       </c>
       <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9010</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/GuildExchange.xlsx
+++ b/Assets/06.Table/GuildExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9B69E-9A3B-4B0F-B1C8-FD00AFAD5229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE10EA-236A-4F75-97F4-AFE269E6B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildExchange" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>exchage_Guild5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견공 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +405,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,7 +855,7 @@
         <v>49</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -874,7 +884,7 @@
         <v>43</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -903,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -932,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -961,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1045,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1063,30 +1073,36 @@
     <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1094,9 +1110,14 @@
         <v>50000</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1127,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1137,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1126,7 +1147,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1156,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1165,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1178,33 +1199,14 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="6">
-        <v>500</v>
-      </c>
-      <c r="E18" s="6">
-        <f>($C$8/D18)*C18*2</f>
-        <v>1000000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3">
-        <f>E18/F18</f>
-        <v>11.764705882352942</v>
-      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>5000</v>
@@ -1217,101 +1219,112 @@
         <v>1000000</v>
       </c>
       <c r="F19" s="3">
-        <v>185</v>
+        <v>85000</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3">
         <f>E19/F19</f>
-        <v>5405.405405405405</v>
+        <v>11.764705882352942</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="6">
         <v>500</v>
       </c>
       <c r="E20" s="6">
         <f>($C$8/D20)*C20*2</f>
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="F20" s="3">
-        <v>500000</v>
+        <v>185</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3">
         <f>E20/F20</f>
+        <v>5405.405405405405</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>500</v>
+      </c>
+      <c r="E21" s="6">
+        <f>($C$8/D21)*C21*2</f>
+        <v>6000000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3">
+        <f>E21/F21</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="6">
-        <f>D23*E23+D24*E24+D25*E25+D26*E26+D27*E27</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>4000</v>
-      </c>
       <c r="E23" s="6">
-        <v>2</v>
+        <f>D24*E24+D25*E25+D26*E26+D27*E27+D28*E28</f>
+        <v>120000</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
+        <v>4000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1319,19 +1332,37 @@
       <c r="D26" s="6">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
-        <v>4</v>
+      <c r="E26" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
@@ -1346,26 +1377,24 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
@@ -1522,6 +1551,18 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
